--- a/www/regionais.xlsx
+++ b/www/regionais.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mleal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\projeto_dengue\projeto_dengue_git\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0868A76-D279-4212-95DA-E61F1C969202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9DCF19-584F-4967-8D8F-42B2136FC9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{B9D56F09-DE7C-4D82-8BE5-A2E085C5ADDA}"/>
+    <workbookView xWindow="780" yWindow="600" windowWidth="10245" windowHeight="10920" xr2:uid="{B9D56F09-DE7C-4D82-8BE5-A2E085C5ADDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
